--- a/tests/Teste.xlsx
+++ b/tests/Teste.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Desktop\Nova pasta\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\ACO-master\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D1FB8-1E28-41C8-B6FD-40237DF11466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CD13B-3F0E-4E53-A9C9-2E3A298D0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="4005" windowWidth="21600" windowHeight="11295" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>ACO</t>
   </si>
@@ -51,30 +52,15 @@
     <t>CTA</t>
   </si>
   <si>
-    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita</t>
-  </si>
-  <si>
     <t>Texto</t>
   </si>
   <si>
     <t>Cor</t>
   </si>
   <si>
-    <t>TESTE</t>
-  </si>
-  <si>
     <t>#FFFFFF</t>
   </si>
   <si>
-    <t>TTTTTTTTTTTTTTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assine </t>
-  </si>
-  <si>
-    <t>#2463CB</t>
-  </si>
-  <si>
     <t>Imagem</t>
   </si>
   <si>
@@ -90,14 +76,44 @@
     <t>Cor da borda CTA</t>
   </si>
   <si>
-    <t>Loja_Virtual.png</t>
+    <t>Saiba mais</t>
+  </si>
+  <si>
+    <t>Programa de Indicação Mercantil</t>
+  </si>
+  <si>
+    <t>Indique pessoas para investir e ganhe bonificações especiais! Procure seu gerente e participe.</t>
+  </si>
+  <si>
+    <t>#1526FF</t>
+  </si>
+  <si>
+    <t>#86888C</t>
+  </si>
+  <si>
+    <t>promo.png</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita (Texto)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Texto)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita (Botão)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Botão)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo (Sem CTA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,14 +121,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,25 +187,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,148 +527,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93629CA3-3198-42D0-967B-71EB0C1EAD52}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="31.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="25.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>35427</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>268</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>12345</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>268</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>98564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>57854</v>
-      </c>
+      <c r="N3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -641,5 +685,214 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99B94B41-2E93-448B-A50B-E33F90DCE17F}">
+          <x14:formula1>
+            <xm:f>Planilha2!$B$3:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51DBCE5A-B3B3-4029-AE75-3307CD07A37C}">
+          <x14:formula1>
+            <xm:f>Planilha2!$E$3:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3 G3 I3 K3:N3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9C877E-FD83-4D37-AB5D-E6EE31D149BB}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="31.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="25.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>35427</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>268</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/tests/Teste.xlsx
+++ b/tests/Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Desktop\Nova pasta\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D1FB8-1E28-41C8-B6FD-40237DF11466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E006F-1BFE-4972-BD09-07AE4540BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="4005" windowWidth="21600" windowHeight="11295" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
+    <workbookView xWindow="4845" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>Cor da borda CTA</t>
   </si>
   <si>
-    <t>Loja_Virtual.png</t>
+    <t>promo.png</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/Teste.xlsx
+++ b/tests/Teste.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uriel\Desktop\Nova pasta\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\ACO-master\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E006F-1BFE-4972-BD09-07AE4540BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CD13B-3F0E-4E53-A9C9-2E3A298D0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>ACO</t>
   </si>
@@ -51,30 +52,15 @@
     <t>CTA</t>
   </si>
   <si>
-    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita</t>
-  </si>
-  <si>
     <t>Texto</t>
   </si>
   <si>
     <t>Cor</t>
   </si>
   <si>
-    <t>TESTE</t>
-  </si>
-  <si>
     <t>#FFFFFF</t>
   </si>
   <si>
-    <t>TTTTTTTTTTTTTTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assine </t>
-  </si>
-  <si>
-    <t>#2463CB</t>
-  </si>
-  <si>
     <t>Imagem</t>
   </si>
   <si>
@@ -90,14 +76,44 @@
     <t>Cor da borda CTA</t>
   </si>
   <si>
+    <t>Saiba mais</t>
+  </si>
+  <si>
+    <t>Programa de Indicação Mercantil</t>
+  </si>
+  <si>
+    <t>Indique pessoas para investir e ganhe bonificações especiais! Procure seu gerente e participe.</t>
+  </si>
+  <si>
+    <t>#1526FF</t>
+  </si>
+  <si>
+    <t>#86888C</t>
+  </si>
+  <si>
     <t>promo.png</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita (Texto)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Texto)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita (Botão)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Botão)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo (Sem CTA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,14 +121,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +150,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,25 +187,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,148 +527,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93629CA3-3198-42D0-967B-71EB0C1EAD52}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="31.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="35" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="25.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>35427</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>268</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>12345</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>268</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>98564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>57854</v>
-      </c>
+      <c r="N3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -641,5 +685,214 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99B94B41-2E93-448B-A50B-E33F90DCE17F}">
+          <x14:formula1>
+            <xm:f>Planilha2!$B$3:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51DBCE5A-B3B3-4029-AE75-3307CD07A37C}">
+          <x14:formula1>
+            <xm:f>Planilha2!$E$3:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3 G3 I3 K3:N3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9C877E-FD83-4D37-AB5D-E6EE31D149BB}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="31.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="25.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>35427</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5">
+        <v>268</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/tests/Teste.xlsx
+++ b/tests/Teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\ACO-master\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\ACO-lusca\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CD13B-3F0E-4E53-A9C9-2E3A298D0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A27EE6-C1D4-4396-9E12-0E2F9965A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
@@ -100,13 +100,13 @@
     <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Texto)</t>
   </si>
   <si>
-    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita (Botão)</t>
-  </si>
-  <si>
     <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Botão)</t>
   </si>
   <si>
     <t>Cartão com imagem à esquerda - Título, subtítulo (Sem CTA)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita</t>
   </si>
 </sst>
 </file>
@@ -195,9 +195,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -211,6 +208,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -530,141 +530,141 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="52" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="31.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="10" width="25.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="9.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="31.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="25.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>35427</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5">
-        <v>268</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4">
+        <v>319</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -712,187 +712,188 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="65.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="31.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="4"/>
-    <col min="10" max="10" width="25.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="9.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="65.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="31.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="25.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>35427</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>268</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/Teste.xlsx
+++ b/tests/Teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\ACO-lusca\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A27EE6-C1D4-4396-9E12-0E2F9965A40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E276B7-5509-4C67-8999-B5F1E666A9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
   <si>
     <t>ACO</t>
   </si>
@@ -100,13 +100,16 @@
     <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Texto)</t>
   </si>
   <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita (Botão)</t>
+  </si>
+  <si>
     <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Botão)</t>
   </si>
   <si>
     <t>Cartão com imagem à esquerda - Título, subtítulo (Sem CTA)</t>
   </si>
   <si>
-    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita</t>
+    <t>07-11_BM_Card App_Programa de Indicação Premiada.png</t>
   </si>
 </sst>
 </file>
@@ -529,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93629CA3-3198-42D0-967B-71EB0C1EAD52}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -629,10 +632,10 @@
         <v>35427</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
@@ -653,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>20</v>
@@ -712,7 +715,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -852,7 +855,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
@@ -868,18 +871,18 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -894,6 +897,5 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/Teste.xlsx
+++ b/tests/Teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Área de Trabalho\ACO-lusca\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E276B7-5509-4C67-8999-B5F1E666A9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32556432-F21E-4952-9C0B-D7099BF405F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{194E534E-66A2-4CC4-91FC-AFB76DA148AB}"/>
   </bookViews>
@@ -100,13 +100,13 @@
     <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Texto)</t>
   </si>
   <si>
-    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita (Botão)</t>
-  </si>
-  <si>
     <t>Cartão com imagem à esquerda - subtítulo e CTA à direita (Botão)</t>
   </si>
   <si>
     <t>Cartão com imagem à esquerda - Título, subtítulo (Sem CTA)</t>
+  </si>
+  <si>
+    <t>Cartão com imagem à esquerda - Título, subtítulo e CTA à direita</t>
   </si>
   <si>
     <t>07-11_BM_Card App_Programa de Indicação Premiada.png</t>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93629CA3-3198-42D0-967B-71EB0C1EAD52}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,10 +632,10 @@
         <v>35427</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
@@ -715,7 +715,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
@@ -871,18 +871,18 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -897,5 +897,6 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>